--- a/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>21,44%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 13,81</t>
+          <t>-6,26; 14,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 11,69</t>
+          <t>-6,03; 11,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 72,94</t>
+          <t>-33,09; 163,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 81,88</t>
+          <t>-32,54; 124,03</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>-20,45%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,61</t>
+          <t>-1,76; 2,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,38</t>
+          <t>-2,61; 1,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 146,34</t>
+          <t>-84,56; 515,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 194,41</t>
+          <t>-74,44; 146,31</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-74,51%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-89,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,41</t>
+          <t>-8,84; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -0,45</t>
+          <t>-10,66; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>75,26%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,53</t>
+          <t>1,5; 7,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,52</t>
+          <t>-0,2; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 94,16</t>
+          <t>16,19; 126,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 73,46</t>
+          <t>-4,73; 182,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42,86%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 4,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 3,51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 94,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; 81,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>21,44%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.406300866285792</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.172892581539065</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.309170674343347</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1520650395770645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 14,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 11,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,09; 163,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-32,54; 124,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.259571246677085</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.568170268758923</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3308523291749052</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3574067190403426</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.81189057804213</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.79129205992979</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.631022224523002</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.114944941736968</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-20,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 2,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 1,85</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-84,56; 515,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-74,44; 146,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1936018679208493</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.608187477552279</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1348398065814668</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2542013694799112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.761800226345347</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.661125199061356</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.8455720790961465</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7636980462879228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.267940238426494</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.557615914499292</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.15104866805606</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.260165902470646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,131 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>60,08%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>75,26%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.825301005800819</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.442501483139641</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 7,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 8,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>16,19; 126,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 182,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.844326794668453</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.88916077941498</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>42,86%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>25,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 4,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 3,51</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 94,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,27; 81,66</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.2627266049613143</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.7775779370111792</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.07012557002622209</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1647893981191407</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.175226658827026</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.617060811428789</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4295574712664117</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5396384235929196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.678123090924196</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.523760194578827</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.071216630490284</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4819171665716456</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
